--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value478.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value478.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9886361042510453</v>
+        <v>0.9753396511077881</v>
       </c>
       <c r="B1">
-        <v>1.671564933047098</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>4.162949846994665</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.834466932887439</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.055882360332216</v>
+        <v>1.070657253265381</v>
       </c>
     </row>
   </sheetData>
